--- a/violations_export.xlsx
+++ b/violations_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="127">
   <si>
     <t>Violation No.</t>
   </si>
@@ -44,6 +44,339 @@
   </si>
   <si>
     <t>6403617635</t>
+  </si>
+  <si>
+    <t>6403617636</t>
+  </si>
+  <si>
+    <t>6403617637</t>
+  </si>
+  <si>
+    <t>6403617638</t>
+  </si>
+  <si>
+    <t>6403617639</t>
+  </si>
+  <si>
+    <t>6403617640</t>
+  </si>
+  <si>
+    <t>6403617641</t>
+  </si>
+  <si>
+    <t>6403617642</t>
+  </si>
+  <si>
+    <t>6403617643</t>
+  </si>
+  <si>
+    <t>6403617644</t>
+  </si>
+  <si>
+    <t>6403617645</t>
+  </si>
+  <si>
+    <t>6403617646</t>
+  </si>
+  <si>
+    <t>6403617647</t>
+  </si>
+  <si>
+    <t>6403617648</t>
+  </si>
+  <si>
+    <t>6403617649</t>
+  </si>
+  <si>
+    <t>6403617650</t>
+  </si>
+  <si>
+    <t>6403617651</t>
+  </si>
+  <si>
+    <t>6403617652</t>
+  </si>
+  <si>
+    <t>6403617653</t>
+  </si>
+  <si>
+    <t>6403617654</t>
+  </si>
+  <si>
+    <t>6403617655</t>
+  </si>
+  <si>
+    <t>6403617656</t>
+  </si>
+  <si>
+    <t>6403617657</t>
+  </si>
+  <si>
+    <t>6403617658</t>
+  </si>
+  <si>
+    <t>6403617659</t>
+  </si>
+  <si>
+    <t>6403617660</t>
+  </si>
+  <si>
+    <t>6403617661</t>
+  </si>
+  <si>
+    <t>6403617662</t>
+  </si>
+  <si>
+    <t>6403617663</t>
+  </si>
+  <si>
+    <t>6403617664</t>
+  </si>
+  <si>
+    <t>6403617665</t>
+  </si>
+  <si>
+    <t>6403617666</t>
+  </si>
+  <si>
+    <t>6403617667</t>
+  </si>
+  <si>
+    <t>6403617668</t>
+  </si>
+  <si>
+    <t>6403617669</t>
+  </si>
+  <si>
+    <t>6403617670</t>
+  </si>
+  <si>
+    <t>6403617671</t>
+  </si>
+  <si>
+    <t>6403617672</t>
+  </si>
+  <si>
+    <t>6403617673</t>
+  </si>
+  <si>
+    <t>6403617674</t>
+  </si>
+  <si>
+    <t>6403617675</t>
+  </si>
+  <si>
+    <t>6403617676</t>
+  </si>
+  <si>
+    <t>6403617677</t>
+  </si>
+  <si>
+    <t>6403617678</t>
+  </si>
+  <si>
+    <t>6403617679</t>
+  </si>
+  <si>
+    <t>6403617680</t>
+  </si>
+  <si>
+    <t>6403617681</t>
+  </si>
+  <si>
+    <t>6403617682</t>
+  </si>
+  <si>
+    <t>6403617683</t>
+  </si>
+  <si>
+    <t>6403617684</t>
+  </si>
+  <si>
+    <t>6403617685</t>
+  </si>
+  <si>
+    <t>6403617686</t>
+  </si>
+  <si>
+    <t>6403617687</t>
+  </si>
+  <si>
+    <t>6403617688</t>
+  </si>
+  <si>
+    <t>6403617689</t>
+  </si>
+  <si>
+    <t>6403617690</t>
+  </si>
+  <si>
+    <t>6403617691</t>
+  </si>
+  <si>
+    <t>6403617692</t>
+  </si>
+  <si>
+    <t>6403617693</t>
+  </si>
+  <si>
+    <t>6403617694</t>
+  </si>
+  <si>
+    <t>6403617695</t>
+  </si>
+  <si>
+    <t>6403617696</t>
+  </si>
+  <si>
+    <t>6403617697</t>
+  </si>
+  <si>
+    <t>6403617698</t>
+  </si>
+  <si>
+    <t>6403617699</t>
+  </si>
+  <si>
+    <t>6403617700</t>
+  </si>
+  <si>
+    <t>6403617701</t>
+  </si>
+  <si>
+    <t>6403617702</t>
+  </si>
+  <si>
+    <t>6403617703</t>
+  </si>
+  <si>
+    <t>6403617704</t>
+  </si>
+  <si>
+    <t>6403617705</t>
+  </si>
+  <si>
+    <t>6403617706</t>
+  </si>
+  <si>
+    <t>6403617707</t>
+  </si>
+  <si>
+    <t>6403617708</t>
+  </si>
+  <si>
+    <t>6403617709</t>
+  </si>
+  <si>
+    <t>6403617710</t>
+  </si>
+  <si>
+    <t>6403617711</t>
+  </si>
+  <si>
+    <t>6403617712</t>
+  </si>
+  <si>
+    <t>6403617713</t>
+  </si>
+  <si>
+    <t>6403617714</t>
+  </si>
+  <si>
+    <t>6403617715</t>
+  </si>
+  <si>
+    <t>6403617716</t>
+  </si>
+  <si>
+    <t>6403617717</t>
+  </si>
+  <si>
+    <t>6403617718</t>
+  </si>
+  <si>
+    <t>6403617719</t>
+  </si>
+  <si>
+    <t>6403617720</t>
+  </si>
+  <si>
+    <t>6403617721</t>
+  </si>
+  <si>
+    <t>6403617722</t>
+  </si>
+  <si>
+    <t>6403617723</t>
+  </si>
+  <si>
+    <t>6403617724</t>
+  </si>
+  <si>
+    <t>6403617725</t>
+  </si>
+  <si>
+    <t>6403617726</t>
+  </si>
+  <si>
+    <t>6403617727</t>
+  </si>
+  <si>
+    <t>6403617728</t>
+  </si>
+  <si>
+    <t>6403617729</t>
+  </si>
+  <si>
+    <t>6403617730</t>
+  </si>
+  <si>
+    <t>6403617731</t>
+  </si>
+  <si>
+    <t>6403617732</t>
+  </si>
+  <si>
+    <t>6403617733</t>
+  </si>
+  <si>
+    <t>6403617734</t>
+  </si>
+  <si>
+    <t>6403617735</t>
+  </si>
+  <si>
+    <t>6403617736</t>
+  </si>
+  <si>
+    <t>6403617737</t>
+  </si>
+  <si>
+    <t>6403617738</t>
+  </si>
+  <si>
+    <t>6403617739</t>
+  </si>
+  <si>
+    <t>6403617740</t>
+  </si>
+  <si>
+    <t>6403617741</t>
+  </si>
+  <si>
+    <t>6403617742</t>
+  </si>
+  <si>
+    <t>6403617743</t>
+  </si>
+  <si>
+    <t>6403617744</t>
+  </si>
+  <si>
+    <t>6403617745</t>
+  </si>
+  <si>
+    <t>6403617746</t>
   </si>
   <si>
     <t>17:07:00</t>
@@ -423,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,19 +796,19 @@
         <v>-166027</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>10093</v>
@@ -489,22 +822,2584 @@
         <v>-166027</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="H3">
         <v>10480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8">
+        <v>10092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21">
+        <v>12043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" t="s">
+        <v>126</v>
+      </c>
+      <c r="G86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" t="s">
+        <v>126</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" t="s">
+        <v>126</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" t="s">
+        <v>126</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" t="s">
+        <v>126</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" t="s">
+        <v>126</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" t="s">
+        <v>126</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C111" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" t="s">
+        <v>126</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" t="s">
+        <v>125</v>
+      </c>
+      <c r="F112" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" t="s">
+        <v>126</v>
+      </c>
+      <c r="G113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-166027</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" t="s">
+        <v>126</v>
+      </c>
+      <c r="G114" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/violations_export.xlsx
+++ b/violations_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
   <si>
     <t>Violation No.</t>
   </si>
@@ -46,6 +46,9 @@
     <t>PTC ID#</t>
   </si>
   <si>
+    <t>15000</t>
+  </si>
+  <si>
     <t>6403617633</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>6403617659</t>
   </si>
   <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
     <t>17:06:00</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
   </si>
   <si>
     <t>150.00</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
   <si>
     <t>Exceeding the specified speed by more than 10 to 20 km/h - Automated Monitoring</t>
@@ -504,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,28 +556,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>45279</v>
+        <v>-254208</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>42046</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -579,25 +588,25 @@
         <v>45279</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>42046</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -608,28 +617,25 @@
         <v>45279</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>42046</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4">
-        <v>10088</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -640,25 +646,25 @@
         <v>45279</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>42046</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>10088</v>
@@ -672,25 +678,28 @@
         <v>45279</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>42046</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>10088</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -701,25 +710,25 @@
         <v>45279</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>42046</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -730,25 +739,25 @@
         <v>45279</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>42046</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -759,25 +768,25 @@
         <v>45279</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>42046</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -788,28 +797,25 @@
         <v>45279</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>42046</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10">
-        <v>10083</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -820,25 +826,28 @@
         <v>45279</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>42046</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>10083</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -849,28 +858,25 @@
         <v>45279</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>42046</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12">
-        <v>10091</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -881,25 +887,28 @@
         <v>45279</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>42046</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>10091</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -910,28 +919,25 @@
         <v>45279</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>42046</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14">
-        <v>10081</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -942,25 +948,28 @@
         <v>45279</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>42046</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>10081</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -971,31 +980,28 @@
         <v>45279</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>42046</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16">
-        <v>10083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1003,28 +1009,31 @@
         <v>45279</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>42046</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1032,28 +1041,28 @@
         <v>45279</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>42046</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1061,28 +1070,31 @@
         <v>45279</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>42046</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>10088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1090,28 +1102,28 @@
         <v>45279</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>42046</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1119,28 +1131,28 @@
         <v>45279</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>42046</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1148,28 +1160,28 @@
         <v>45279</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>42046</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1177,28 +1189,28 @@
         <v>45279</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>42046</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1206,28 +1218,28 @@
         <v>45279</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>42046</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1235,28 +1247,28 @@
         <v>45279</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>42046</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1264,28 +1276,28 @@
         <v>45279</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>42046</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1293,28 +1305,28 @@
         <v>45279</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>42046</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1322,25 +1334,54 @@
         <v>45279</v>
       </c>
       <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>42046</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28">
-        <v>42046</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" t="s">
-        <v>42</v>
+      <c r="B29" s="2">
+        <v>45279</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>42046</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/violations_export.xlsx
+++ b/violations_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="140">
   <si>
     <t>Violation No.</t>
   </si>
@@ -46,112 +46,396 @@
     <t>PTC ID#</t>
   </si>
   <si>
-    <t>15000</t>
-  </si>
-  <si>
-    <t>6403617633</t>
-  </si>
-  <si>
-    <t>6403617634</t>
-  </si>
-  <si>
-    <t>6403617635</t>
-  </si>
-  <si>
-    <t>6403617636</t>
-  </si>
-  <si>
-    <t>6403617637</t>
-  </si>
-  <si>
-    <t>6403617638</t>
-  </si>
-  <si>
-    <t>6403617639</t>
-  </si>
-  <si>
-    <t>6403617640</t>
-  </si>
-  <si>
-    <t>6403617641</t>
-  </si>
-  <si>
-    <t>6403617642</t>
-  </si>
-  <si>
-    <t>6403617643</t>
-  </si>
-  <si>
-    <t>6403617644</t>
-  </si>
-  <si>
-    <t>6403617645</t>
-  </si>
-  <si>
-    <t>6403617646</t>
-  </si>
-  <si>
-    <t>6403617647</t>
-  </si>
-  <si>
-    <t>6403617648</t>
-  </si>
-  <si>
-    <t>6403617649</t>
-  </si>
-  <si>
-    <t>6403617650</t>
-  </si>
-  <si>
-    <t>6403617651</t>
-  </si>
-  <si>
-    <t>6403617652</t>
-  </si>
-  <si>
-    <t>6403617653</t>
-  </si>
-  <si>
-    <t>6403617654</t>
-  </si>
-  <si>
-    <t>6403617655</t>
-  </si>
-  <si>
-    <t>6403617656</t>
-  </si>
-  <si>
-    <t>6403617657</t>
-  </si>
-  <si>
-    <t>6403617658</t>
-  </si>
-  <si>
-    <t>6403617659</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>17:06:00</t>
-  </si>
-  <si>
-    <t>أ ر س 5357</t>
-  </si>
-  <si>
-    <t>West Depot</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>Exceeding the specified speed by more than 10 to 20 km/h - Automated Monitoring</t>
+    <t>15075</t>
+  </si>
+  <si>
+    <t>1507541</t>
+  </si>
+  <si>
+    <t>15646</t>
+  </si>
+  <si>
+    <t>6403612522</t>
+  </si>
+  <si>
+    <t>6403612523</t>
+  </si>
+  <si>
+    <t>6403612524</t>
+  </si>
+  <si>
+    <t>6403612525</t>
+  </si>
+  <si>
+    <t>6403612526</t>
+  </si>
+  <si>
+    <t>6403612527</t>
+  </si>
+  <si>
+    <t>6403612528</t>
+  </si>
+  <si>
+    <t>6403612529</t>
+  </si>
+  <si>
+    <t>6403612530</t>
+  </si>
+  <si>
+    <t>6403612531</t>
+  </si>
+  <si>
+    <t>6403612532</t>
+  </si>
+  <si>
+    <t>6403612533</t>
+  </si>
+  <si>
+    <t>6403612534</t>
+  </si>
+  <si>
+    <t>6403612535</t>
+  </si>
+  <si>
+    <t>6403612536</t>
+  </si>
+  <si>
+    <t>6403612537</t>
+  </si>
+  <si>
+    <t>6403612538</t>
+  </si>
+  <si>
+    <t>6403612539</t>
+  </si>
+  <si>
+    <t>6403612540</t>
+  </si>
+  <si>
+    <t>6403612541</t>
+  </si>
+  <si>
+    <t>6403612542</t>
+  </si>
+  <si>
+    <t>6403612543</t>
+  </si>
+  <si>
+    <t>6403612544</t>
+  </si>
+  <si>
+    <t>6403612545</t>
+  </si>
+  <si>
+    <t>6403612546</t>
+  </si>
+  <si>
+    <t>6403612547</t>
+  </si>
+  <si>
+    <t>6403612548</t>
+  </si>
+  <si>
+    <t>6403612549</t>
+  </si>
+  <si>
+    <t>6403612550</t>
+  </si>
+  <si>
+    <t>6403612551</t>
+  </si>
+  <si>
+    <t>6403612552</t>
+  </si>
+  <si>
+    <t>6403612553</t>
+  </si>
+  <si>
+    <t>6403612554</t>
+  </si>
+  <si>
+    <t>6403612555</t>
+  </si>
+  <si>
+    <t>6403612556</t>
+  </si>
+  <si>
+    <t>6403612557</t>
+  </si>
+  <si>
+    <t>6403612558</t>
+  </si>
+  <si>
+    <t>6403612559</t>
+  </si>
+  <si>
+    <t>6403612560</t>
+  </si>
+  <si>
+    <t>6403612561</t>
+  </si>
+  <si>
+    <t>6403612562</t>
+  </si>
+  <si>
+    <t>6403612563</t>
+  </si>
+  <si>
+    <t>6403612564</t>
+  </si>
+  <si>
+    <t>6403612565</t>
+  </si>
+  <si>
+    <t>6403612566</t>
+  </si>
+  <si>
+    <t>6403612567</t>
+  </si>
+  <si>
+    <t>6403612568</t>
+  </si>
+  <si>
+    <t>6403612569</t>
+  </si>
+  <si>
+    <t>6403612570</t>
+  </si>
+  <si>
+    <t>6403612571</t>
+  </si>
+  <si>
+    <t>6403612572</t>
+  </si>
+  <si>
+    <t>6403612573</t>
+  </si>
+  <si>
+    <t>6403612574</t>
+  </si>
+  <si>
+    <t>6403612575</t>
+  </si>
+  <si>
+    <t>6403612576</t>
+  </si>
+  <si>
+    <t>6403612577</t>
+  </si>
+  <si>
+    <t>6403612578</t>
+  </si>
+  <si>
+    <t>6403612579</t>
+  </si>
+  <si>
+    <t>6403612580</t>
+  </si>
+  <si>
+    <t>6403612581</t>
+  </si>
+  <si>
+    <t>6403612582</t>
+  </si>
+  <si>
+    <t>6403612583</t>
+  </si>
+  <si>
+    <t>6403612584</t>
+  </si>
+  <si>
+    <t>6403612585</t>
+  </si>
+  <si>
+    <t>6403612586</t>
+  </si>
+  <si>
+    <t>6403612587</t>
+  </si>
+  <si>
+    <t>6403612588</t>
+  </si>
+  <si>
+    <t>6403612589</t>
+  </si>
+  <si>
+    <t>6403612590</t>
+  </si>
+  <si>
+    <t>6403612591</t>
+  </si>
+  <si>
+    <t>6403612592</t>
+  </si>
+  <si>
+    <t>6403612593</t>
+  </si>
+  <si>
+    <t>6403612594</t>
+  </si>
+  <si>
+    <t>6403612595</t>
+  </si>
+  <si>
+    <t>6403612596</t>
+  </si>
+  <si>
+    <t>6403612597</t>
+  </si>
+  <si>
+    <t>6403612598</t>
+  </si>
+  <si>
+    <t>6403612599</t>
+  </si>
+  <si>
+    <t>6403612600</t>
+  </si>
+  <si>
+    <t>6403612601</t>
+  </si>
+  <si>
+    <t>6403612602</t>
+  </si>
+  <si>
+    <t>6403612603</t>
+  </si>
+  <si>
+    <t>6403612604</t>
+  </si>
+  <si>
+    <t>6403612605</t>
+  </si>
+  <si>
+    <t>6403612606</t>
+  </si>
+  <si>
+    <t>6403612607</t>
+  </si>
+  <si>
+    <t>6403612608</t>
+  </si>
+  <si>
+    <t>6403612609</t>
+  </si>
+  <si>
+    <t>6403612610</t>
+  </si>
+  <si>
+    <t>6403612611</t>
+  </si>
+  <si>
+    <t>6403612612</t>
+  </si>
+  <si>
+    <t>6403612613</t>
+  </si>
+  <si>
+    <t>6403612614</t>
+  </si>
+  <si>
+    <t>6403612615</t>
+  </si>
+  <si>
+    <t>6403612616</t>
+  </si>
+  <si>
+    <t>6403612617</t>
+  </si>
+  <si>
+    <t>6403612618</t>
+  </si>
+  <si>
+    <t>6403612619</t>
+  </si>
+  <si>
+    <t>6403612620</t>
+  </si>
+  <si>
+    <t>6403612621</t>
+  </si>
+  <si>
+    <t>6403612622</t>
+  </si>
+  <si>
+    <t>6403612623</t>
+  </si>
+  <si>
+    <t>6403612624</t>
+  </si>
+  <si>
+    <t>6403612625</t>
+  </si>
+  <si>
+    <t>6403612626</t>
+  </si>
+  <si>
+    <t>6403612627</t>
+  </si>
+  <si>
+    <t>6403612628</t>
+  </si>
+  <si>
+    <t>6403612629</t>
+  </si>
+  <si>
+    <t>6403612630</t>
+  </si>
+  <si>
+    <t>6403612631</t>
+  </si>
+  <si>
+    <t>6403612632</t>
+  </si>
+  <si>
+    <t>6403612633</t>
+  </si>
+  <si>
+    <t>6403612634</t>
+  </si>
+  <si>
+    <t>07:55:00</t>
+  </si>
+  <si>
+    <t>11:07:00</t>
+  </si>
+  <si>
+    <t>08:08:00</t>
+  </si>
+  <si>
+    <t>17:07:00</t>
+  </si>
+  <si>
+    <t>أ س م 4644</t>
+  </si>
+  <si>
+    <t>East Depot</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit..."_x000D_
+"There is no one who loves pain itself, who seeks after it and wants to have it, simply because it is pain..."_x000D_
+</t>
+  </si>
+  <si>
+    <t>"Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit."Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit."Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit."Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit.</t>
+  </si>
+  <si>
+    <t>"Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit.</t>
   </si>
   <si>
     <t>تجاوز السرعة المحددة بأكثر من 10 الى 20 كم/س - رصد آلي</t>
+  </si>
+  <si>
+    <t>"Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit."Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit."Neque porro quisquam est qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit.</t>
   </si>
 </sst>
 </file>
@@ -513,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,28 +840,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>-254208</v>
+        <v>45299</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>135</v>
+      </c>
+      <c r="J2">
+        <v>10091</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -585,28 +872,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>45279</v>
+        <v>45297</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>139</v>
+      </c>
+      <c r="J3">
+        <v>10091</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -614,28 +904,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="2">
-        <v>45279</v>
+        <v>45308</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>137</v>
+      </c>
+      <c r="J4">
+        <v>10083</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -643,31 +936,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5">
-        <v>10088</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -675,31 +965,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="J6">
-        <v>10088</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -707,28 +997,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -736,28 +1026,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E8">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -765,28 +1055,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>138</v>
+      </c>
+      <c r="J9">
+        <v>10088</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -794,28 +1087,28 @@
         <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -823,31 +1116,28 @@
         <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11">
-        <v>10083</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -855,28 +1145,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -884,31 +1174,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13">
-        <v>10091</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -916,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -945,31 +1232,28 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15">
-        <v>10081</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -977,411 +1261,2957 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17">
-        <v>10083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19">
-        <v>10088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E21">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E22">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E28">
-        <v>42046</v>
+        <v>21001</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>21001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30">
+        <v>21001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B31" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31">
+        <v>21001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="E29">
-        <v>42046</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="B32" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32">
+        <v>21001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="G29" t="s">
+      <c r="B33" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33">
+        <v>21001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="H29" t="s">
+      <c r="B34" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34">
+        <v>21001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>21001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="I29" t="s">
+      <c r="B36" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36">
+        <v>21001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37">
+        <v>21001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38">
+        <v>21001</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>21001</v>
+      </c>
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40">
+        <v>21001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41">
+        <v>21001</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42">
+        <v>21001</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43">
+        <v>21001</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44">
+        <v>21001</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45">
+        <v>21001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46">
+        <v>21001</v>
+      </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47">
+        <v>21001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48">
+        <v>21001</v>
+      </c>
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49">
+        <v>21001</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="s">
+        <v>138</v>
+      </c>
+      <c r="I49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50">
+        <v>21001</v>
+      </c>
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51">
+        <v>21001</v>
+      </c>
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52">
+        <v>21001</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53">
+        <v>21001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" t="s">
+        <v>138</v>
+      </c>
+      <c r="I53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54">
+        <v>21001</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55">
+        <v>21001</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56">
+        <v>21001</v>
+      </c>
+      <c r="F56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57">
+        <v>21001</v>
+      </c>
+      <c r="F57" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58">
+        <v>21001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59">
+        <v>21001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60">
+        <v>21001</v>
+      </c>
+      <c r="F60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61">
+        <v>21001</v>
+      </c>
+      <c r="F61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62">
+        <v>21001</v>
+      </c>
+      <c r="F62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63">
+        <v>21001</v>
+      </c>
+      <c r="F63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64">
+        <v>21001</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65">
+        <v>21001</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66">
+        <v>21001</v>
+      </c>
+      <c r="F66" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67">
+        <v>21001</v>
+      </c>
+      <c r="F67" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68">
+        <v>21001</v>
+      </c>
+      <c r="F68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69">
+        <v>21001</v>
+      </c>
+      <c r="F69" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70">
+        <v>21001</v>
+      </c>
+      <c r="F70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" t="s">
+        <v>138</v>
+      </c>
+      <c r="I70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71">
+        <v>21001</v>
+      </c>
+      <c r="F71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72">
+        <v>21001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73">
+        <v>21001</v>
+      </c>
+      <c r="F73" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" t="s">
+        <v>138</v>
+      </c>
+      <c r="I73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74">
+        <v>21001</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" t="s">
+        <v>138</v>
+      </c>
+      <c r="I74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75">
+        <v>21001</v>
+      </c>
+      <c r="F75" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76">
+        <v>21001</v>
+      </c>
+      <c r="F76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77">
+        <v>21001</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78">
+        <v>21001</v>
+      </c>
+      <c r="F78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" t="s">
+        <v>138</v>
+      </c>
+      <c r="I78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79">
+        <v>21001</v>
+      </c>
+      <c r="F79" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" t="s">
+        <v>134</v>
+      </c>
+      <c r="H79" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80">
+        <v>21001</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81">
+        <v>21001</v>
+      </c>
+      <c r="F81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" t="s">
+        <v>138</v>
+      </c>
+      <c r="I81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82">
+        <v>21001</v>
+      </c>
+      <c r="F82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" t="s">
+        <v>138</v>
+      </c>
+      <c r="I82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83">
+        <v>21001</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84">
+        <v>21001</v>
+      </c>
+      <c r="F84" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" t="s">
+        <v>138</v>
+      </c>
+      <c r="I84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85">
+        <v>21001</v>
+      </c>
+      <c r="F85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86">
+        <v>21001</v>
+      </c>
+      <c r="F86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" t="s">
+        <v>134</v>
+      </c>
+      <c r="H86" t="s">
+        <v>138</v>
+      </c>
+      <c r="I86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87">
+        <v>21001</v>
+      </c>
+      <c r="F87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88">
+        <v>21001</v>
+      </c>
+      <c r="F88" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" t="s">
+        <v>138</v>
+      </c>
+      <c r="I88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89">
+        <v>21001</v>
+      </c>
+      <c r="F89" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" t="s">
+        <v>138</v>
+      </c>
+      <c r="I89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C90" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90">
+        <v>21001</v>
+      </c>
+      <c r="F90" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" t="s">
+        <v>138</v>
+      </c>
+      <c r="I90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91">
+        <v>21001</v>
+      </c>
+      <c r="F91" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" t="s">
+        <v>134</v>
+      </c>
+      <c r="H91" t="s">
+        <v>138</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92">
+        <v>21001</v>
+      </c>
+      <c r="F92" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" t="s">
+        <v>138</v>
+      </c>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93">
+        <v>21001</v>
+      </c>
+      <c r="F93" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>138</v>
+      </c>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94">
+        <v>21001</v>
+      </c>
+      <c r="F94" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" t="s">
+        <v>134</v>
+      </c>
+      <c r="H94" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95">
+        <v>21001</v>
+      </c>
+      <c r="F95" t="s">
+        <v>131</v>
+      </c>
+      <c r="G95" t="s">
+        <v>134</v>
+      </c>
+      <c r="H95" t="s">
+        <v>138</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96">
+        <v>21001</v>
+      </c>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" t="s">
+        <v>134</v>
+      </c>
+      <c r="H96" t="s">
+        <v>138</v>
+      </c>
+      <c r="I96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97">
+        <v>21001</v>
+      </c>
+      <c r="F97" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" t="s">
+        <v>138</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C98" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98">
+        <v>21001</v>
+      </c>
+      <c r="F98" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99">
+        <v>21001</v>
+      </c>
+      <c r="F99" t="s">
+        <v>131</v>
+      </c>
+      <c r="G99" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" t="s">
+        <v>138</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100">
+        <v>21001</v>
+      </c>
+      <c r="F100" t="s">
+        <v>131</v>
+      </c>
+      <c r="G100" t="s">
+        <v>134</v>
+      </c>
+      <c r="H100" t="s">
+        <v>138</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101">
+        <v>21001</v>
+      </c>
+      <c r="F101" t="s">
+        <v>131</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
+      <c r="H101" t="s">
+        <v>138</v>
+      </c>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" t="s">
+        <v>130</v>
+      </c>
+      <c r="E102">
+        <v>21001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103">
+        <v>21001</v>
+      </c>
+      <c r="F103" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" t="s">
+        <v>138</v>
+      </c>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C104" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104">
+        <v>21001</v>
+      </c>
+      <c r="F104" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" t="s">
+        <v>130</v>
+      </c>
+      <c r="E105">
+        <v>21001</v>
+      </c>
+      <c r="F105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" t="s">
+        <v>134</v>
+      </c>
+      <c r="H105" t="s">
+        <v>138</v>
+      </c>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106">
+        <v>21001</v>
+      </c>
+      <c r="F106" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" t="s">
+        <v>138</v>
+      </c>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C107" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107">
+        <v>21001</v>
+      </c>
+      <c r="F107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H107" t="s">
+        <v>138</v>
+      </c>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" t="s">
+        <v>130</v>
+      </c>
+      <c r="E108">
+        <v>21001</v>
+      </c>
+      <c r="F108" t="s">
+        <v>131</v>
+      </c>
+      <c r="G108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109">
+        <v>21001</v>
+      </c>
+      <c r="F109" t="s">
+        <v>131</v>
+      </c>
+      <c r="G109" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" t="s">
+        <v>138</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110">
+        <v>21001</v>
+      </c>
+      <c r="F110" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" t="s">
+        <v>134</v>
+      </c>
+      <c r="H110" t="s">
+        <v>138</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111">
+        <v>21001</v>
+      </c>
+      <c r="F111" t="s">
+        <v>131</v>
+      </c>
+      <c r="G111" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" t="s">
+        <v>138</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C112" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112">
+        <v>21001</v>
+      </c>
+      <c r="F112" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" t="s">
+        <v>134</v>
+      </c>
+      <c r="H112" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113">
+        <v>21001</v>
+      </c>
+      <c r="F113" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" t="s">
+        <v>134</v>
+      </c>
+      <c r="H113" t="s">
+        <v>138</v>
+      </c>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" t="s">
+        <v>130</v>
+      </c>
+      <c r="E114">
+        <v>21001</v>
+      </c>
+      <c r="F114" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" t="s">
+        <v>134</v>
+      </c>
+      <c r="H114" t="s">
+        <v>138</v>
+      </c>
+      <c r="I114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115">
+        <v>21001</v>
+      </c>
+      <c r="F115" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H115" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116">
+        <v>21001</v>
+      </c>
+      <c r="F116" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" t="s">
+        <v>134</v>
+      </c>
+      <c r="H116" t="s">
+        <v>138</v>
+      </c>
+      <c r="I116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45280</v>
+      </c>
+      <c r="C117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117">
+        <v>21001</v>
+      </c>
+      <c r="F117" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" t="s">
+        <v>134</v>
+      </c>
+      <c r="H117" t="s">
+        <v>138</v>
+      </c>
+      <c r="I117" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
